--- a/ITMO/homeworks/sims/attemt2/short data 2.xlsx
+++ b/ITMO/homeworks/sims/attemt2/short data 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\homeworks\sims\attemt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC719D3-9D65-4BC7-ABBA-8FA0508D4402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC40E6-E126-4E78-9C29-915F9E753CD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="12540" windowHeight="8124" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Time Mg</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Time Mg cc</t>
+  </si>
+  <si>
+    <t>I Mg cor</t>
+  </si>
+  <si>
+    <t>Time Mg cor</t>
   </si>
 </sst>
 </file>
@@ -96,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -384,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M110"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,9 +401,12 @@
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
     <col min="10" max="10" width="18.77734375" customWidth="1"/>
     <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -412,8 +422,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -441,9 +457,15 @@
       <c r="D2" s="1">
         <v>292881</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <f>B2/D2</f>
         <v>1.9538003489471836E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.53333E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5722.31</v>
       </c>
       <c r="J2">
         <v>1.9538003489471836E-2</v>
@@ -471,9 +493,15 @@
       <c r="D3" s="1">
         <v>388822</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E66" si="0">B3/D3</f>
+      <c r="E3" s="5">
+        <f>B3/D3</f>
         <v>9.6804964739649491E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.14933299999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3763.99</v>
       </c>
       <c r="J3">
         <v>9.6804964739649491E-3</v>
@@ -501,9 +529,15 @@
       <c r="D4" s="1">
         <v>405306</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
+      <c r="E4" s="5">
+        <f>B4/D4</f>
         <v>8.6236078419761851E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.27333299999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3495.2</v>
       </c>
       <c r="J4">
         <v>8.6236078419761851E-3</v>
@@ -531,9 +565,15 @@
       <c r="D5" s="1">
         <v>411316</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
+      <c r="E5" s="5">
+        <f>B5/D5</f>
         <v>9.4332095031557251E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.39733299999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3880.03</v>
       </c>
       <c r="J5">
         <v>9.4332095031557251E-3</v>
@@ -561,9 +601,15 @@
       <c r="D6" s="1">
         <v>414697</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
+      <c r="E6" s="5">
+        <f>B6/D6</f>
         <v>9.6457172345109799E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.52133300000000005</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4000.05</v>
       </c>
       <c r="J6">
         <v>9.6457172345109799E-3</v>
@@ -591,9 +637,15 @@
       <c r="D7" s="1">
         <v>418309</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="5">
+        <f>B7/D7</f>
         <v>9.673877444664112E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.64533300000000005</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4046.67</v>
       </c>
       <c r="J7">
         <v>9.673877444664112E-3</v>
@@ -621,9 +673,15 @@
       <c r="D8" s="1">
         <v>421558</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
+      <c r="E8" s="5">
+        <f>B8/D8</f>
         <v>1.0107553409020822E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.76933300000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4260.92</v>
       </c>
       <c r="J8">
         <v>1.0107553409020822E-2</v>
@@ -651,9 +709,15 @@
       <c r="D9" s="1">
         <v>423424</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E9" s="5">
+        <f>B9/D9</f>
         <v>9.7256886714026606E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>4118.09</v>
       </c>
       <c r="J9">
         <v>9.7256886714026606E-3</v>
@@ -681,9 +745,15 @@
       <c r="D10" s="1">
         <v>427053</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
+      <c r="E10" s="5">
+        <f>B10/D10</f>
         <v>9.3759322613352434E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.0173300000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4004.02</v>
       </c>
       <c r="J10">
         <v>9.3759322613352434E-3</v>
@@ -711,9 +781,15 @@
       <c r="D11" s="1">
         <v>429146</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
+      <c r="E11" s="5">
+        <f>B11/D11</f>
         <v>9.80402939792052E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.14133</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4207.3599999999997</v>
       </c>
       <c r="J11">
         <v>9.80402939792052E-3</v>
@@ -741,9 +817,15 @@
       <c r="D12" s="1">
         <v>430978</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
+      <c r="E12" s="5">
+        <f>B12/D12</f>
         <v>9.7922863812073945E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.2653300000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4220.26</v>
       </c>
       <c r="J12">
         <v>9.7922863812073945E-3</v>
@@ -771,9 +853,15 @@
       <c r="D13" s="1">
         <v>432114</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
+      <c r="E13" s="5">
+        <f>B13/D13</f>
         <v>9.9019703133895222E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.38933</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4278.78</v>
       </c>
       <c r="J13">
         <v>9.9019703133895222E-3</v>
@@ -801,9 +889,15 @@
       <c r="D14" s="1">
         <v>433279</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
+      <c r="E14" s="5">
+        <f>B14/D14</f>
         <v>9.6487021064948914E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.5133300000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4180.58</v>
       </c>
       <c r="J14">
         <v>9.6487021064948914E-3</v>
@@ -831,9 +925,15 @@
       <c r="D15" s="1">
         <v>435399</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
+      <c r="E15" s="5">
+        <f>B15/D15</f>
         <v>9.4103569369704577E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.63733</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4097.26</v>
       </c>
       <c r="J15">
         <v>9.4103569369704577E-3</v>
@@ -861,9 +961,15 @@
       <c r="D16" s="1">
         <v>436104</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
+      <c r="E16" s="5">
+        <f>B16/D16</f>
         <v>9.5316254838295443E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.7613300000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4156.78</v>
       </c>
       <c r="J16">
         <v>9.5316254838295443E-3</v>
@@ -891,9 +997,15 @@
       <c r="D17" s="1">
         <v>436198</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
+      <c r="E17" s="5">
+        <f>B17/D17</f>
         <v>8.9838101045855313E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.88533</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3918.72</v>
       </c>
       <c r="J17">
         <v>8.9838101045855313E-3</v>
@@ -921,9 +1033,15 @@
       <c r="D18" s="1">
         <v>437452</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
+      <c r="E18" s="5">
+        <f>B18/D18</f>
         <v>8.028446549564295E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.0093299999999998</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3512.06</v>
       </c>
       <c r="J18">
         <v>8.028446549564295E-3</v>
@@ -951,9 +1069,15 @@
       <c r="D19" s="1">
         <v>437393</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
+      <c r="E19" s="5">
+        <f>B19/D19</f>
         <v>7.5601575699656837E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.1333299999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3306.76</v>
       </c>
       <c r="J19">
         <v>7.5601575699656837E-3</v>
@@ -981,9 +1105,15 @@
       <c r="D20" s="1">
         <v>438572</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
+      <c r="E20" s="5">
+        <f>B20/D20</f>
         <v>7.044590169915088E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2573300000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3089.56</v>
       </c>
       <c r="J20">
         <v>7.044590169915088E-3</v>
@@ -1011,9 +1141,15 @@
       <c r="D21" s="1">
         <v>437879</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
+      <c r="E21" s="5">
+        <f>B21/D21</f>
         <v>6.7318597146700338E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.3813300000000002</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2947.74</v>
       </c>
       <c r="J21">
         <v>6.7318597146700338E-3</v>
@@ -1041,9 +1177,15 @@
       <c r="D22" s="1">
         <v>439886</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
+      <c r="E22" s="5">
+        <f>B22/D22</f>
         <v>6.7530223739787126E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.5053299999999998</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2970.56</v>
       </c>
       <c r="J22">
         <v>6.7530223739787126E-3</v>
@@ -1071,9 +1213,15 @@
       <c r="D23" s="1">
         <v>438984</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
+      <c r="E23" s="5">
+        <f>B23/D23</f>
         <v>6.735256865853881E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.6293299999999999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2956.67</v>
       </c>
       <c r="J23">
         <v>6.735256865853881E-3</v>
@@ -1101,9 +1249,15 @@
       <c r="D24" s="1">
         <v>439458</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
+      <c r="E24" s="5">
+        <f>B24/D24</f>
         <v>6.3014668068393336E-3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.7533300000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2769.23</v>
       </c>
       <c r="J24">
         <v>6.3014668068393336E-3</v>
@@ -1131,9 +1285,15 @@
       <c r="D25" s="1">
         <v>440910</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
+      <c r="E25" s="5">
+        <f>B25/D25</f>
         <v>6.6585924565103994E-3</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2.8773300000000002</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2935.84</v>
       </c>
       <c r="J25">
         <v>6.6585924565103994E-3</v>
@@ -1161,9 +1321,15 @@
       <c r="D26" s="1">
         <v>440471</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
+      <c r="E26" s="5">
+        <f>B26/D26</f>
         <v>6.7327701483185049E-3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.0013299999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2965.59</v>
       </c>
       <c r="J26">
         <v>6.7327701483185049E-3</v>
@@ -1191,9 +1357,15 @@
       <c r="D27" s="1">
         <v>439532</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
+      <c r="E27" s="5">
+        <f>B27/D27</f>
         <v>6.9050945096147728E-3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.1253299999999999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3035.01</v>
       </c>
       <c r="J27">
         <v>6.9050945096147728E-3</v>
@@ -1221,9 +1393,15 @@
       <c r="D28" s="1">
         <v>439354</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
+      <c r="E28" s="5">
+        <f>B28/D28</f>
         <v>6.8176003860212948E-3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.2493300000000001</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2995.34</v>
       </c>
       <c r="J28">
         <v>6.8176003860212948E-3</v>
@@ -1251,9 +1429,15 @@
       <c r="D29" s="1">
         <v>439619</v>
       </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
+      <c r="E29" s="5">
+        <f>B29/D29</f>
         <v>6.7300321414679532E-3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.3733300000000002</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2958.65</v>
       </c>
       <c r="J29">
         <v>6.7300321414679532E-3</v>
@@ -1281,9 +1465,15 @@
       <c r="D30" s="1">
         <v>440517</v>
       </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
+      <c r="E30" s="5">
+        <f>B30/D30</f>
         <v>6.6667801696642806E-3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3.4973299999999998</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2936.83</v>
       </c>
       <c r="J30">
         <v>6.6667801696642806E-3</v>
@@ -1311,9 +1501,15 @@
       <c r="D31" s="1">
         <v>440618</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
+      <c r="E31" s="5">
+        <f>B31/D31</f>
         <v>6.5684788183869025E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.6213299999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2894.19</v>
       </c>
       <c r="J31">
         <v>6.5684788183869025E-3</v>
@@ -1341,9 +1537,15 @@
       <c r="D32" s="1">
         <v>440820</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
+      <c r="E32" s="5">
+        <f>B32/D32</f>
         <v>6.500226849961435E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3.74533</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2865.43</v>
       </c>
       <c r="J32">
         <v>6.500226849961435E-3</v>
@@ -1371,9 +1573,15 @@
       <c r="D33" s="1">
         <v>441484</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
+      <c r="E33" s="5">
+        <f>B33/D33</f>
         <v>6.3174882894963353E-3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3.8693300000000002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2789.07</v>
       </c>
       <c r="J33">
         <v>6.3174882894963353E-3</v>
@@ -1401,9 +1609,15 @@
       <c r="D34" s="1">
         <v>441071</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
+      <c r="E34" s="5">
+        <f>B34/D34</f>
         <v>6.1030537033720201E-3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.9933299999999998</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2691.88</v>
       </c>
       <c r="J34">
         <v>6.1030537033720201E-3</v>
@@ -1431,9 +1645,15 @@
       <c r="D35" s="1">
         <v>441236</v>
       </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
+      <c r="E35" s="5">
+        <f>B35/D35</f>
         <v>5.6445303647027897E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4.1173299999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2490.5700000000002</v>
       </c>
       <c r="J35">
         <v>5.6445303647027897E-3</v>
@@ -1461,9 +1681,15 @@
       <c r="D36" s="1">
         <v>441601</v>
       </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
+      <c r="E36" s="5">
+        <f>B36/D36</f>
         <v>5.5230853191002736E-3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4.2413299999999996</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2439</v>
       </c>
       <c r="J36">
         <v>5.5230853191002736E-3</v>
@@ -1491,9 +1717,15 @@
       <c r="D37" s="1">
         <v>438421</v>
       </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
+      <c r="E37" s="5">
+        <f>B37/D37</f>
         <v>6.4769707655427085E-3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>4.3653300000000002</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2839.64</v>
       </c>
       <c r="J37">
         <v>6.4769707655427085E-3</v>
@@ -1521,9 +1753,15 @@
       <c r="D38" s="1">
         <v>425526</v>
       </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
+      <c r="E38" s="5">
+        <f>B38/D38</f>
         <v>8.6846632168187145E-3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4.4893299999999998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3695.55</v>
       </c>
       <c r="J38">
         <v>8.6846632168187145E-3</v>
@@ -1551,9 +1789,15 @@
       <c r="D39" s="1">
         <v>397350</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="0"/>
+      <c r="E39" s="5">
+        <f>B39/D39</f>
         <v>9.832163080407701E-3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>4.6133300000000004</v>
+      </c>
+      <c r="H39" s="1">
+        <v>3906.81</v>
       </c>
       <c r="J39">
         <v>9.832163080407701E-3</v>
@@ -1581,9 +1825,15 @@
       <c r="D40" s="1">
         <v>363012</v>
       </c>
-      <c r="E40" s="1">
-        <f t="shared" si="0"/>
+      <c r="E40" s="5">
+        <f>B40/D40</f>
         <v>9.3878990226218418E-3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4.73733</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3407.92</v>
       </c>
       <c r="J40">
         <v>9.3878990226218418E-3</v>
@@ -1611,9 +1861,15 @@
       <c r="D41" s="1">
         <v>329809</v>
       </c>
-      <c r="E41" s="1">
-        <f t="shared" si="0"/>
+      <c r="E41" s="5">
+        <f>B41/D41</f>
         <v>7.762038028070792E-3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4.8613299999999997</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2559.9899999999998</v>
       </c>
       <c r="J41">
         <v>7.762038028070792E-3</v>
@@ -1641,9 +1897,15 @@
       <c r="D42" s="1">
         <v>305837</v>
       </c>
-      <c r="E42" s="1">
-        <f t="shared" si="0"/>
+      <c r="E42" s="5">
+        <f>B42/D42</f>
         <v>5.2027714109149645E-3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4.9853300000000003</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1591.2</v>
       </c>
       <c r="J42">
         <v>5.2027714109149645E-3</v>
@@ -1671,9 +1933,15 @@
       <c r="D43" s="1">
         <v>288473</v>
       </c>
-      <c r="E43" s="1">
-        <f t="shared" si="0"/>
+      <c r="E43" s="5">
+        <f>B43/D43</f>
         <v>4.0173950421703245E-3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5.1093299999999999</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1158.9100000000001</v>
       </c>
       <c r="J43">
         <v>4.0173950421703245E-3</v>
@@ -1701,9 +1969,15 @@
       <c r="D44" s="1">
         <v>276925</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" si="0"/>
+      <c r="E44" s="5">
+        <f>B44/D44</f>
         <v>3.1251927417170712E-3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5.2333299999999996</v>
+      </c>
+      <c r="H44" s="1">
+        <v>865.44399999999996</v>
       </c>
       <c r="J44">
         <v>3.1251927417170712E-3</v>
@@ -1731,9 +2005,15 @@
       <c r="D45" s="1">
         <v>267548</v>
       </c>
-      <c r="E45" s="1">
-        <f t="shared" si="0"/>
+      <c r="E45" s="5">
+        <f>B45/D45</f>
         <v>2.6233161899920764E-3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>5.3573300000000001</v>
+      </c>
+      <c r="H45" s="1">
+        <v>701.86300000000006</v>
       </c>
       <c r="J45">
         <v>2.6233161899920764E-3</v>
@@ -1761,9 +2041,15 @@
       <c r="D46" s="1">
         <v>260791</v>
       </c>
-      <c r="E46" s="1">
-        <f t="shared" si="0"/>
+      <c r="E46" s="5">
+        <f>B46/D46</f>
         <v>2.4023758488598149E-3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5.4813299999999998</v>
+      </c>
+      <c r="H46" s="1">
+        <v>626.51800000000003</v>
       </c>
       <c r="J46">
         <v>2.4023758488598149E-3</v>
@@ -1791,9 +2077,15 @@
       <c r="D47" s="1">
         <v>255697</v>
       </c>
-      <c r="E47" s="1">
-        <f t="shared" si="0"/>
+      <c r="E47" s="5">
+        <f>B47/D47</f>
         <v>2.1555747623163354E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.6053300000000004</v>
+      </c>
+      <c r="H47" s="1">
+        <v>551.17399999999998</v>
       </c>
       <c r="J47">
         <v>2.1555747623163354E-3</v>
@@ -1821,9 +2113,15 @@
       <c r="D48" s="1">
         <v>251174</v>
       </c>
-      <c r="E48" s="1">
-        <f t="shared" si="0"/>
+      <c r="E48" s="5">
+        <f>B48/D48</f>
         <v>2.147029549236784E-3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5.72933</v>
+      </c>
+      <c r="H48" s="1">
+        <v>539.27800000000002</v>
       </c>
       <c r="J48">
         <v>2.147029549236784E-3</v>
@@ -1851,9 +2149,15 @@
       <c r="D49" s="1">
         <v>246473</v>
       </c>
-      <c r="E49" s="1">
-        <f t="shared" si="0"/>
+      <c r="E49" s="5">
+        <f>B49/D49</f>
         <v>2.2764643591793015E-3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5.8533299999999997</v>
+      </c>
+      <c r="H49" s="1">
+        <v>561.08699999999999</v>
       </c>
       <c r="J49">
         <v>2.2764643591793015E-3</v>
@@ -1881,9 +2185,15 @@
       <c r="D50" s="1">
         <v>244326</v>
       </c>
-      <c r="E50" s="1">
-        <f t="shared" si="0"/>
+      <c r="E50" s="5">
+        <f>B50/D50</f>
         <v>2.0651915882877792E-3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5.9773300000000003</v>
+      </c>
+      <c r="H50" s="1">
+        <v>504.58</v>
       </c>
       <c r="J50">
         <v>2.0651915882877792E-3</v>
@@ -1911,9 +2221,15 @@
       <c r="D51" s="1">
         <v>253946</v>
       </c>
-      <c r="E51" s="1">
-        <f t="shared" si="0"/>
+      <c r="E51" s="5">
+        <f>B51/D51</f>
         <v>2.0923621557338962E-3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6.1013299999999999</v>
+      </c>
+      <c r="H51" s="1">
+        <v>531.34699999999998</v>
       </c>
       <c r="J51">
         <v>2.0923621557338962E-3</v>
@@ -1941,9 +2257,15 @@
       <c r="D52" s="1">
         <v>281796</v>
       </c>
-      <c r="E52" s="1">
-        <f t="shared" si="0"/>
+      <c r="E52" s="5">
+        <f>B52/D52</f>
         <v>1.7765156354242076E-3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>6.2253299999999996</v>
+      </c>
+      <c r="H52" s="1">
+        <v>500.61500000000001</v>
       </c>
       <c r="J52">
         <v>1.7765156354242076E-3</v>
@@ -1971,9 +2293,15 @@
       <c r="D53" s="1">
         <v>313461</v>
       </c>
-      <c r="E53" s="1">
-        <f t="shared" si="0"/>
+      <c r="E53" s="5">
+        <f>B53/D53</f>
         <v>1.3725120509409463E-3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>6.3493300000000001</v>
+      </c>
+      <c r="H53" s="1">
+        <v>430.22899999999998</v>
       </c>
       <c r="J53">
         <v>1.3725120509409463E-3</v>
@@ -2001,9 +2329,15 @@
       <c r="D54" s="1">
         <v>340599</v>
       </c>
-      <c r="E54" s="1">
-        <f t="shared" si="0"/>
+      <c r="E54" s="5">
+        <f>B54/D54</f>
         <v>9.1970616472743596E-4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>6.4733299999999998</v>
+      </c>
+      <c r="H54" s="1">
+        <v>313.25099999999998</v>
       </c>
       <c r="J54">
         <v>9.1970616472743596E-4</v>
@@ -2031,9 +2365,15 @@
       <c r="D55" s="1">
         <v>368091</v>
       </c>
-      <c r="E55" s="1">
-        <f t="shared" si="0"/>
+      <c r="E55" s="5">
+        <f>B55/D55</f>
         <v>4.3358299985601391E-4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6.5973300000000004</v>
+      </c>
+      <c r="H55" s="1">
+        <v>159.59800000000001</v>
       </c>
       <c r="J55">
         <v>4.3358299985601391E-4</v>
@@ -2061,9 +2401,15 @@
       <c r="D56" s="1">
         <v>397937</v>
       </c>
-      <c r="E56" s="1">
-        <f t="shared" si="0"/>
+      <c r="E56" s="5">
+        <f>B56/D56</f>
         <v>2.615615034540643E-4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6.72133</v>
+      </c>
+      <c r="H56" s="1">
+        <v>104.08499999999999</v>
       </c>
       <c r="J56">
         <v>2.615615034540643E-4</v>
@@ -2091,9 +2437,15 @@
       <c r="D57" s="1">
         <v>418674</v>
       </c>
-      <c r="E57" s="1">
-        <f t="shared" si="0"/>
+      <c r="E57" s="5">
+        <f>B57/D57</f>
         <v>1.0417747459837487E-4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>6.8453299999999997</v>
+      </c>
+      <c r="H57" s="1">
+        <v>43.616399999999999</v>
       </c>
       <c r="J57">
         <v>1.0417747459837487E-4</v>
@@ -2121,9 +2473,15 @@
       <c r="D58" s="1">
         <v>429921</v>
       </c>
-      <c r="E58" s="1">
-        <f t="shared" si="0"/>
+      <c r="E58" s="5">
+        <f>B58/D58</f>
         <v>5.5337375936509267E-5</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6.9693300000000002</v>
+      </c>
+      <c r="H58" s="1">
+        <v>23.790700000000001</v>
       </c>
       <c r="J58">
         <v>5.5337375936509267E-5</v>
@@ -2151,9 +2509,15 @@
       <c r="D59" s="1">
         <v>436727</v>
       </c>
-      <c r="E59" s="1">
-        <f t="shared" si="0"/>
+      <c r="E59" s="5">
+        <f>B59/D59</f>
         <v>1.5888529905410016E-5</v>
+      </c>
+      <c r="G59" s="1">
+        <v>7.0933299999999999</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6.9389500000000002</v>
       </c>
       <c r="J59">
         <v>1.5888529905410016E-5</v>
@@ -2181,9 +2545,15 @@
       <c r="D60" s="1">
         <v>438299</v>
       </c>
-      <c r="E60" s="1">
-        <f t="shared" si="0"/>
+      <c r="E60" s="5">
+        <f>B60/D60</f>
         <v>6.7849344853627314E-6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>7.2173299999999996</v>
+      </c>
+      <c r="H60" s="1">
+        <v>2.97383</v>
       </c>
       <c r="J60">
         <v>6.7849344853627314E-6</v>
@@ -2211,9 +2581,15 @@
       <c r="D61" s="1">
         <v>438847</v>
       </c>
-      <c r="E61" s="1">
-        <f t="shared" si="0"/>
+      <c r="E61" s="5">
+        <f>B61/D61</f>
         <v>6.7764619559892172E-6</v>
+      </c>
+      <c r="G61" s="1">
+        <v>7.3413300000000001</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2.97383</v>
       </c>
       <c r="J61">
         <v>6.7764619559892172E-6</v>
@@ -2241,9 +2617,15 @@
       <c r="D62" s="1">
         <v>437051</v>
       </c>
-      <c r="E62" s="1">
-        <f t="shared" si="0"/>
+      <c r="E62" s="5">
+        <f>B62/D62</f>
         <v>4.5362211732726848E-6</v>
+      </c>
+      <c r="G62" s="1">
+        <v>7.4653299999999998</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J62">
         <v>4.5362211732726848E-6</v>
@@ -2271,9 +2653,15 @@
       <c r="D63" s="1">
         <v>432571</v>
       </c>
-      <c r="E63" s="1">
-        <f t="shared" si="0"/>
+      <c r="E63" s="5">
+        <f>B63/D63</f>
         <v>6.8748020556163039E-6</v>
+      </c>
+      <c r="G63" s="1">
+        <v>7.5893300000000004</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2.97384</v>
       </c>
       <c r="J63">
         <v>6.8748020556163039E-6</v>
@@ -2301,9 +2689,15 @@
       <c r="D64" s="1">
         <v>429384</v>
       </c>
-      <c r="E64" s="1">
-        <f t="shared" si="0"/>
+      <c r="E64" s="5">
+        <f>B64/D64</f>
         <v>6.9258053397425148E-6</v>
+      </c>
+      <c r="G64" s="1">
+        <v>7.71333</v>
+      </c>
+      <c r="H64" s="1">
+        <v>2.97383</v>
       </c>
       <c r="J64">
         <v>6.9258053397425148E-6</v>
@@ -2331,9 +2725,15 @@
       <c r="D65" s="1">
         <v>431006</v>
       </c>
-      <c r="E65" s="1">
-        <f t="shared" si="0"/>
+      <c r="E65" s="5">
+        <f>B65/D65</f>
         <v>2.2999169385112966E-6</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7.8373299999999997</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J65">
         <v>2.2999169385112966E-6</v>
@@ -2361,9 +2761,15 @@
       <c r="D66" s="1">
         <v>436630</v>
       </c>
-      <c r="E66" s="1">
-        <f t="shared" si="0"/>
+      <c r="E66" s="5">
+        <f>B66/D66</f>
         <v>2.2702929253601446E-6</v>
+      </c>
+      <c r="G66" s="1">
+        <v>7.9613300000000002</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J66">
         <v>2.2702929253601446E-6</v>
@@ -2391,9 +2797,15 @@
       <c r="D67" s="1">
         <v>439607</v>
       </c>
-      <c r="E67" s="1">
-        <f t="shared" ref="E67:E130" si="1">B67/D67</f>
+      <c r="E67" s="5">
+        <f>B67/D67</f>
         <v>2.2747590461480368E-9</v>
+      </c>
+      <c r="G67" s="1">
+        <v>8.2093299999999996</v>
+      </c>
+      <c r="H67" s="1">
+        <v>3.9651100000000001</v>
       </c>
       <c r="J67">
         <v>8.9497383995196853E-6</v>
@@ -2421,9 +2833,15 @@
       <c r="D68" s="1">
         <v>443042</v>
       </c>
-      <c r="E68" s="1">
-        <f t="shared" si="1"/>
+      <c r="E68" s="5">
+        <f>B68/D68</f>
         <v>8.9497383995196853E-6</v>
+      </c>
+      <c r="G68" s="1">
+        <v>8.4573300000000007</v>
+      </c>
+      <c r="H68" s="1">
+        <v>2.97383</v>
       </c>
       <c r="J68">
         <v>6.6963372949213911E-6</v>
@@ -2451,9 +2869,15 @@
       <c r="D69" s="1">
         <v>442963</v>
       </c>
-      <c r="E69" s="1">
-        <f t="shared" si="1"/>
+      <c r="E69" s="5">
+        <f>B69/D69</f>
         <v>2.257524894855778E-9</v>
+      </c>
+      <c r="G69" s="1">
+        <v>8.70533</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J69">
         <v>2.2548211434264579E-6</v>
@@ -2481,9 +2905,15 @@
       <c r="D70" s="1">
         <v>444098</v>
       </c>
-      <c r="E70" s="1">
-        <f t="shared" si="1"/>
+      <c r="E70" s="5">
+        <f>B70/D70</f>
         <v>6.6963372949213911E-6</v>
+      </c>
+      <c r="G70" s="1">
+        <v>8.8293300000000006</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J70">
         <v>2.2767064768029397E-6</v>
@@ -2511,9 +2941,15 @@
       <c r="D71" s="1">
         <v>442728</v>
       </c>
-      <c r="E71" s="1">
-        <f t="shared" si="1"/>
+      <c r="E71" s="5">
+        <f>B71/D71</f>
         <v>2.2587231889557471E-9</v>
+      </c>
+      <c r="G71" s="1">
+        <v>9.0773299999999999</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J71">
         <v>2.2699965879451413E-6</v>
@@ -2541,9 +2977,15 @@
       <c r="D72" s="1">
         <v>439626</v>
       </c>
-      <c r="E72" s="1">
-        <f t="shared" si="1"/>
+      <c r="E72" s="5">
+        <f>B72/D72</f>
         <v>2.2548211434264579E-6</v>
+      </c>
+      <c r="G72" s="1">
+        <v>9.5733300000000003</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J72">
         <v>2.2354578133386253E-6</v>
@@ -2571,9 +3013,15 @@
       <c r="D73" s="1">
         <v>435400</v>
       </c>
-      <c r="E73" s="1">
-        <f t="shared" si="1"/>
+      <c r="E73" s="5">
+        <f>B73/D73</f>
         <v>2.2767064768029397E-6</v>
+      </c>
+      <c r="G73" s="1">
+        <v>9.6973299999999991</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J73">
         <v>2.2378196069224275E-6</v>
@@ -2601,9 +3049,15 @@
       <c r="D74" s="1">
         <v>434500</v>
       </c>
-      <c r="E74" s="1">
-        <f t="shared" si="1"/>
+      <c r="E74" s="5">
+        <f>B74/D74</f>
         <v>2.3014959723820486E-9</v>
+      </c>
+      <c r="G74" s="1">
+        <v>9.8213299999999997</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J74">
         <v>2.2527355902852741E-6</v>
@@ -2631,9 +3085,15 @@
       <c r="D75" s="1">
         <v>436687</v>
       </c>
-      <c r="E75" s="1">
-        <f t="shared" si="1"/>
+      <c r="E75" s="5">
+        <f>B75/D75</f>
         <v>2.2699965879451413E-6</v>
+      </c>
+      <c r="G75" s="1">
+        <v>9.9453300000000002</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J75">
         <v>2.2704541238069715E-6</v>
@@ -2661,9 +3121,15 @@
       <c r="D76" s="1">
         <v>439281</v>
       </c>
-      <c r="E76" s="1">
-        <f t="shared" si="1"/>
+      <c r="E76" s="5">
+        <f>B76/D76</f>
         <v>2.2764471943926554E-9</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10.0693</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J76">
         <v>2.285404029575117E-6</v>
@@ -2691,9 +3157,15 @@
       <c r="D77" s="1">
         <v>441840</v>
       </c>
-      <c r="E77" s="1">
-        <f t="shared" si="1"/>
+      <c r="E77" s="5">
+        <f>B77/D77</f>
         <v>2.263262719536484E-9</v>
+      </c>
+      <c r="G77" s="1">
+        <v>10.317299999999999</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J77">
         <v>2.2461762266664855E-6</v>
@@ -2721,9 +3193,15 @@
       <c r="D78" s="1">
         <v>443277</v>
       </c>
-      <c r="E78" s="1">
-        <f t="shared" si="1"/>
+      <c r="E78" s="5">
+        <f>B78/D78</f>
         <v>2.2559257529716182E-9</v>
+      </c>
+      <c r="G78" s="1">
+        <v>10.4413</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J78">
         <v>4.4840298730260692E-6</v>
@@ -2751,9 +3229,15 @@
       <c r="D79" s="1">
         <v>443434</v>
       </c>
-      <c r="E79" s="1">
-        <f t="shared" si="1"/>
+      <c r="E79" s="5">
+        <f>B79/D79</f>
         <v>2.2354578133386253E-6</v>
+      </c>
+      <c r="G79" s="1">
+        <v>10.565300000000001</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J79">
         <v>2.2386888711229149E-6</v>
@@ -2781,9 +3265,15 @@
       <c r="D80" s="1">
         <v>442966</v>
       </c>
-      <c r="E80" s="1">
-        <f t="shared" si="1"/>
+      <c r="E80" s="5">
+        <f>B80/D80</f>
         <v>2.2378196069224275E-6</v>
+      </c>
+      <c r="G80" s="1">
+        <v>11.6813</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J80">
         <v>2.2587413384131267E-6</v>
@@ -2811,9 +3301,15 @@
       <c r="D81" s="1">
         <v>440033</v>
       </c>
-      <c r="E81" s="1">
-        <f t="shared" si="1"/>
+      <c r="E81" s="5">
+        <f>B81/D81</f>
         <v>2.2527355902852741E-6</v>
+      </c>
+      <c r="G81" s="1">
+        <v>12.4253</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J81">
         <v>2.2695496287545247E-6</v>
@@ -2841,9 +3337,15 @@
       <c r="D82" s="1">
         <v>436599</v>
       </c>
-      <c r="E82" s="1">
-        <f t="shared" si="1"/>
+      <c r="E82" s="5">
+        <f>B82/D82</f>
         <v>2.2704541238069715E-6</v>
+      </c>
+      <c r="G82" s="1">
+        <v>12.673299999999999</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J82">
         <v>2.2723434104475561E-6</v>
@@ -2871,9 +3373,15 @@
       <c r="D83" s="1">
         <v>433743</v>
       </c>
-      <c r="E83" s="1">
-        <f t="shared" si="1"/>
+      <c r="E83" s="5">
+        <f>B83/D83</f>
         <v>2.285404029575117E-6</v>
+      </c>
+      <c r="G83" s="1">
+        <v>12.7973</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2.97383</v>
       </c>
       <c r="J83">
         <v>6.8325896857380488E-6</v>
@@ -2901,9 +3409,15 @@
       <c r="D84" s="1">
         <v>436501</v>
       </c>
-      <c r="E84" s="1">
-        <f t="shared" si="1"/>
+      <c r="E84" s="5">
+        <f>B84/D84</f>
         <v>2.2909454961157018E-9</v>
+      </c>
+      <c r="G84" s="1">
+        <v>12.9213</v>
+      </c>
+      <c r="H84" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J84">
         <v>4.5412606570369662E-6</v>
@@ -2931,9 +3445,15 @@
       <c r="D85" s="1">
         <v>441318</v>
       </c>
-      <c r="E85" s="1">
-        <f t="shared" si="1"/>
+      <c r="E85" s="5">
+        <f>B85/D85</f>
         <v>2.2461762266664855E-6</v>
+      </c>
+      <c r="G85" s="1">
+        <v>13.045299999999999</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.97384</v>
       </c>
       <c r="J85">
         <v>6.7972864248098304E-6</v>
@@ -2961,9 +3481,15 @@
       <c r="D86" s="1">
         <v>442138</v>
       </c>
-      <c r="E86" s="1">
-        <f t="shared" si="1"/>
+      <c r="E86" s="5">
+        <f>B86/D86</f>
         <v>4.4840298730260692E-6</v>
+      </c>
+      <c r="G86" s="1">
+        <v>13.1693</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J86">
         <v>2.2637447961031575E-6</v>
@@ -2991,9 +3517,15 @@
       <c r="D87" s="1">
         <v>442794</v>
       </c>
-      <c r="E87" s="1">
-        <f t="shared" si="1"/>
+      <c r="E87" s="5">
+        <f>B87/D87</f>
         <v>2.2386888711229149E-6</v>
+      </c>
+      <c r="G87" s="1">
+        <v>13.417299999999999</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J87">
         <v>2.2557549994993674E-6</v>
@@ -3021,9 +3553,15 @@
       <c r="D88" s="1">
         <v>441752</v>
       </c>
-      <c r="E88" s="1">
-        <f t="shared" si="1"/>
+      <c r="E88" s="5">
+        <f>B88/D88</f>
         <v>2.2637135768485486E-9</v>
+      </c>
+      <c r="G88" s="1">
+        <v>13.5413</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J88">
         <v>4.5015826018246468E-6</v>
@@ -3051,9 +3589,15 @@
       <c r="D89" s="1">
         <v>441664</v>
       </c>
-      <c r="E89" s="1">
-        <f t="shared" si="1"/>
+      <c r="E89" s="5">
+        <f>B89/D89</f>
         <v>2.2641646138240835E-9</v>
+      </c>
+      <c r="G89" s="1">
+        <v>13.6653</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2.97383</v>
       </c>
       <c r="J89">
         <v>6.7243036194378303E-6</v>
@@ -3081,9 +3625,15 @@
       <c r="D90" s="1">
         <v>438495</v>
       </c>
-      <c r="E90" s="1">
-        <f t="shared" si="1"/>
+      <c r="E90" s="5">
+        <f>B90/D90</f>
         <v>2.2805277141130457E-9</v>
+      </c>
+      <c r="G90" s="1">
+        <v>13.789300000000001</v>
+      </c>
+      <c r="H90" s="1">
+        <v>3.9651100000000001</v>
       </c>
       <c r="J90">
         <v>8.9642660131487332E-6</v>
@@ -3111,9 +3661,15 @@
       <c r="D91" s="1">
         <v>433503</v>
       </c>
-      <c r="E91" s="1">
-        <f t="shared" si="1"/>
+      <c r="E91" s="5">
+        <f>B91/D91</f>
         <v>2.3067891110326804E-9</v>
+      </c>
+      <c r="G91" s="1">
+        <v>14.161300000000001</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J91">
         <v>2.2409663067657751E-6</v>
@@ -3141,9 +3697,15 @@
       <c r="D92" s="1">
         <v>429410</v>
       </c>
-      <c r="E92" s="1">
-        <f t="shared" si="1"/>
+      <c r="E92" s="5">
+        <f>B92/D92</f>
         <v>2.3287766936028503E-9</v>
+      </c>
+      <c r="G92" s="1">
+        <v>14.285299999999999</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J92">
         <v>2.2457436854756309E-6</v>
@@ -3171,9 +3733,15 @@
       <c r="D93" s="1">
         <v>429786</v>
       </c>
-      <c r="E93" s="1">
-        <f t="shared" si="1"/>
+      <c r="E93" s="5">
+        <f>B93/D93</f>
         <v>2.3267393540040856E-9</v>
+      </c>
+      <c r="G93" s="1">
+        <v>14.4093</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J93">
         <v>2.2547954989525304E-6</v>
@@ -3201,9 +3769,15 @@
       <c r="D94" s="1">
         <v>434404</v>
       </c>
-      <c r="E94" s="1">
-        <f t="shared" si="1"/>
+      <c r="E94" s="5">
+        <f>B94/D94</f>
         <v>2.3020045855931346E-9</v>
+      </c>
+      <c r="G94" s="1">
+        <v>14.9053</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J94">
         <v>2.2598638990527648E-6</v>
@@ -3231,9 +3805,15 @@
       <c r="D95" s="1">
         <v>438034</v>
       </c>
-      <c r="E95" s="1">
-        <f t="shared" si="1"/>
+      <c r="E95" s="5">
+        <f>B95/D95</f>
         <v>2.2829278092568159E-9</v>
+      </c>
+      <c r="G95" s="1">
+        <v>15.401300000000001</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J95">
         <v>2.2646964078874321E-6</v>
@@ -3261,9 +3841,15 @@
       <c r="D96" s="1">
         <v>438863</v>
       </c>
-      <c r="E96" s="1">
-        <f t="shared" si="1"/>
+      <c r="E96" s="5">
+        <f>B96/D96</f>
         <v>2.2587413384131267E-6</v>
+      </c>
+      <c r="G96" s="1">
+        <v>15.6493</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J96">
         <v>2.2518093472720084E-6</v>
@@ -3291,9 +3877,15 @@
       <c r="D97" s="1">
         <v>439319</v>
       </c>
-      <c r="E97" s="1">
-        <f t="shared" si="1"/>
+      <c r="E97" s="5">
+        <f>B97/D97</f>
         <v>2.2762502873765989E-9</v>
+      </c>
+      <c r="G97" s="1">
+        <v>16.3933</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J97">
         <v>4.5283984230458241E-6</v>
@@ -3321,9 +3913,15 @@
       <c r="D98" s="1">
         <v>439436</v>
       </c>
-      <c r="E98" s="1">
-        <f t="shared" si="1"/>
+      <c r="E98" s="5">
+        <f>B98/D98</f>
         <v>2.2756442348828954E-9</v>
+      </c>
+      <c r="G98" s="1">
+        <v>16.517299999999999</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J98">
         <v>2.2511650088567923E-6</v>
@@ -3351,9 +3949,15 @@
       <c r="D99" s="1">
         <v>438986</v>
       </c>
-      <c r="E99" s="1">
-        <f t="shared" si="1"/>
+      <c r="E99" s="5">
+        <f>B99/D99</f>
         <v>2.2779769742087446E-9</v>
+      </c>
+      <c r="G99" s="1">
+        <v>16.7653</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J99">
         <v>2.2524335820692037E-6</v>
@@ -3381,9 +3985,15 @@
       <c r="D100" s="1">
         <v>438823</v>
       </c>
-      <c r="E100" s="1">
-        <f t="shared" si="1"/>
+      <c r="E100" s="5">
+        <f>B100/D100</f>
         <v>2.278823124585539E-9</v>
+      </c>
+      <c r="G100" s="1">
+        <v>16.889299999999999</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J100">
         <v>4.5187273643112255E-6</v>
@@ -3411,9 +4021,15 @@
       <c r="D101" s="1">
         <v>438059</v>
       </c>
-      <c r="E101" s="1">
-        <f t="shared" si="1"/>
+      <c r="E101" s="5">
+        <f>B101/D101</f>
         <v>2.2827975227081283E-9</v>
+      </c>
+      <c r="G101" s="1">
+        <v>17.013300000000001</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J101">
         <v>4.5282122496711008E-6</v>
@@ -3441,9 +4057,15 @@
       <c r="D102" s="1">
         <v>436773</v>
       </c>
-      <c r="E102" s="1">
-        <f t="shared" si="1"/>
+      <c r="E102" s="5">
+        <f>B102/D102</f>
         <v>2.2695496287545247E-6</v>
+      </c>
+      <c r="G102" s="1">
+        <v>17.5093</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J102">
         <v>4.488435694492239E-6</v>
@@ -3471,9 +4093,15 @@
       <c r="D103" s="1">
         <v>435952</v>
       </c>
-      <c r="E103" s="1">
-        <f t="shared" si="1"/>
+      <c r="E103" s="5">
+        <f>B103/D103</f>
         <v>2.293830513451022E-9</v>
+      </c>
+      <c r="G103" s="1">
+        <v>17.757300000000001</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J103">
         <v>2.2616478705176145E-6</v>
@@ -3501,9 +4129,15 @@
       <c r="D104" s="1">
         <v>436236</v>
       </c>
-      <c r="E104" s="1">
-        <f t="shared" si="1"/>
+      <c r="E104" s="5">
+        <f>B104/D104</f>
         <v>2.2723434104475561E-6</v>
+      </c>
+      <c r="G104" s="1">
+        <v>18.253299999999999</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J104">
         <v>2.2541853325753269E-6</v>
@@ -3531,9 +4165,15 @@
       <c r="D105" s="1">
         <v>435242</v>
       </c>
-      <c r="E105" s="1">
-        <f t="shared" si="1"/>
+      <c r="E105" s="5">
+        <f>B105/D105</f>
         <v>6.8325896857380488E-6</v>
+      </c>
+      <c r="G105" s="1">
+        <v>18.625299999999999</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J105">
         <v>4.5026049591882156E-6</v>
@@ -3561,9 +4201,15 @@
       <c r="D106" s="1">
         <v>436566</v>
       </c>
-      <c r="E106" s="1">
-        <f t="shared" si="1"/>
+      <c r="E106" s="5">
+        <f>B106/D106</f>
         <v>4.5412606570369662E-6</v>
+      </c>
+      <c r="G106" s="1">
+        <v>19.2453</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1.9825600000000001</v>
       </c>
       <c r="J106">
         <v>4.524801782021846E-6</v>
@@ -3591,9 +4237,15 @@
       <c r="D107" s="1">
         <v>437504</v>
       </c>
-      <c r="E107" s="1">
-        <f t="shared" si="1"/>
+      <c r="E107" s="5">
+        <f>B107/D107</f>
         <v>6.7972864248098304E-6</v>
+      </c>
+      <c r="G107" s="1">
+        <v>20.113299999999999</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J107">
         <v>2.2660787030051984E-6</v>
@@ -3621,9 +4273,15 @@
       <c r="D108" s="1">
         <v>437893</v>
       </c>
-      <c r="E108" s="1">
-        <f t="shared" si="1"/>
+      <c r="E108" s="5">
+        <f>B108/D108</f>
         <v>2.2637447961031575E-6</v>
+      </c>
+      <c r="G108" s="1">
+        <v>20.3613</v>
+      </c>
+      <c r="H108" s="1">
+        <v>2.97384</v>
       </c>
       <c r="J108">
         <v>6.8002240947600698E-6</v>
@@ -3651,9 +4309,15 @@
       <c r="D109" s="1">
         <v>439235</v>
       </c>
-      <c r="E109" s="1">
-        <f t="shared" si="1"/>
+      <c r="E109" s="5">
+        <f>B109/D109</f>
         <v>2.276685601101916E-9</v>
+      </c>
+      <c r="G109" s="1">
+        <v>20.609300000000001</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J109">
         <v>2.2665864856954708E-6</v>
@@ -3681,9 +4345,15 @@
       <c r="D110" s="1">
         <v>439444</v>
       </c>
-      <c r="E110" s="1">
-        <f t="shared" si="1"/>
+      <c r="E110" s="5">
+        <f>B110/D110</f>
         <v>2.2557549994993674E-6</v>
+      </c>
+      <c r="G110" s="1">
+        <v>21.725300000000001</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.99127799999999999</v>
       </c>
       <c r="J110">
         <v>2.2671722727802921E-6</v>
@@ -3711,8 +4381,8 @@
       <c r="D111" s="1">
         <v>440414</v>
       </c>
-      <c r="E111" s="1">
-        <f t="shared" si="1"/>
+      <c r="E111" s="5">
+        <f>B111/D111</f>
         <v>4.5015826018246468E-6</v>
       </c>
       <c r="J111" s="4"/>
@@ -3733,8 +4403,8 @@
       <c r="D112" s="1">
         <v>442251</v>
       </c>
-      <c r="E112" s="1">
-        <f t="shared" si="1"/>
+      <c r="E112" s="5">
+        <f>B112/D112</f>
         <v>6.7243036194378303E-6</v>
       </c>
       <c r="J112" s="4"/>
@@ -3755,8 +4425,8 @@
       <c r="D113" s="1">
         <v>442324</v>
       </c>
-      <c r="E113" s="1">
-        <f t="shared" si="1"/>
+      <c r="E113" s="5">
+        <f>B113/D113</f>
         <v>8.9642660131487332E-6</v>
       </c>
       <c r="J113" s="4"/>
@@ -3777,8 +4447,8 @@
       <c r="D114" s="1">
         <v>442586</v>
       </c>
-      <c r="E114" s="1">
-        <f t="shared" si="1"/>
+      <c r="E114" s="5">
+        <f>B114/D114</f>
         <v>2.2594478813157219E-9</v>
       </c>
       <c r="J114" s="4"/>
@@ -3799,8 +4469,8 @@
       <c r="D115" s="1">
         <v>441481</v>
       </c>
-      <c r="E115" s="1">
-        <f t="shared" si="1"/>
+      <c r="E115" s="5">
+        <f>B115/D115</f>
         <v>2.2651031414715468E-9</v>
       </c>
       <c r="J115" s="4"/>
@@ -3821,8 +4491,8 @@
       <c r="D116" s="1">
         <v>442344</v>
       </c>
-      <c r="E116" s="1">
-        <f t="shared" si="1"/>
+      <c r="E116" s="5">
+        <f>B116/D116</f>
         <v>2.2409663067657751E-6</v>
       </c>
       <c r="J116" s="4"/>
@@ -3843,8 +4513,8 @@
       <c r="D117" s="1">
         <v>441403</v>
       </c>
-      <c r="E117" s="1">
-        <f t="shared" si="1"/>
+      <c r="E117" s="5">
+        <f>B117/D117</f>
         <v>2.2457436854756309E-6</v>
       </c>
       <c r="J117" s="4"/>
@@ -3865,8 +4535,8 @@
       <c r="D118" s="1">
         <v>439631</v>
       </c>
-      <c r="E118" s="1">
-        <f t="shared" si="1"/>
+      <c r="E118" s="5">
+        <f>B118/D118</f>
         <v>2.2547954989525304E-6</v>
       </c>
       <c r="J118" s="4"/>
@@ -3887,8 +4557,8 @@
       <c r="D119" s="1">
         <v>439370</v>
       </c>
-      <c r="E119" s="1">
-        <f t="shared" si="1"/>
+      <c r="E119" s="5">
+        <f>B119/D119</f>
         <v>2.2759860709652459E-9</v>
       </c>
       <c r="J119" s="4"/>
@@ -3909,8 +4579,8 @@
       <c r="D120" s="1">
         <v>438497</v>
       </c>
-      <c r="E120" s="1">
-        <f t="shared" si="1"/>
+      <c r="E120" s="5">
+        <f>B120/D120</f>
         <v>2.2805173125471783E-9</v>
       </c>
       <c r="J120" s="4"/>
@@ -3931,8 +4601,8 @@
       <c r="D121" s="1">
         <v>438828</v>
       </c>
-      <c r="E121" s="1">
-        <f t="shared" si="1"/>
+      <c r="E121" s="5">
+        <f>B121/D121</f>
         <v>2.27879715970722E-9</v>
       </c>
       <c r="J121" s="4"/>
@@ -3953,8 +4623,8 @@
       <c r="D122" s="1">
         <v>438645</v>
       </c>
-      <c r="E122" s="1">
-        <f t="shared" si="1"/>
+      <c r="E122" s="5">
+        <f>B122/D122</f>
         <v>2.2598638990527648E-6</v>
       </c>
       <c r="J122" s="4"/>
@@ -3975,8 +4645,8 @@
       <c r="D123" s="1">
         <v>439124</v>
       </c>
-      <c r="E123" s="1">
-        <f t="shared" si="1"/>
+      <c r="E123" s="5">
+        <f>B123/D123</f>
         <v>2.2772610925387816E-9</v>
       </c>
       <c r="J123" s="4"/>
@@ -3997,8 +4667,8 @@
       <c r="D124" s="1">
         <v>438838</v>
       </c>
-      <c r="E124" s="1">
-        <f t="shared" si="1"/>
+      <c r="E124" s="5">
+        <f>B124/D124</f>
         <v>2.2787452317256028E-9</v>
       </c>
       <c r="J124" s="4"/>
@@ -4019,8 +4689,8 @@
       <c r="D125" s="1">
         <v>438569</v>
       </c>
-      <c r="E125" s="1">
-        <f t="shared" si="1"/>
+      <c r="E125" s="5">
+        <f>B125/D125</f>
         <v>2.2801429193581853E-9</v>
       </c>
       <c r="J125" s="4"/>
@@ -4041,8 +4711,8 @@
       <c r="D126" s="1">
         <v>437709</v>
       </c>
-      <c r="E126" s="1">
-        <f t="shared" si="1"/>
+      <c r="E126" s="5">
+        <f>B126/D126</f>
         <v>2.2646964078874321E-6</v>
       </c>
       <c r="J126" s="4"/>
@@ -4063,8 +4733,8 @@
       <c r="D127" s="1">
         <v>440175</v>
       </c>
-      <c r="E127" s="1">
-        <f t="shared" si="1"/>
+      <c r="E127" s="5">
+        <f>B127/D127</f>
         <v>2.271823706480377E-9</v>
       </c>
       <c r="J127" s="4"/>
@@ -4085,8 +4755,8 @@
       <c r="D128" s="1">
         <v>440214</v>
       </c>
-      <c r="E128" s="1">
-        <f t="shared" si="1"/>
+      <c r="E128" s="5">
+        <f>B128/D128</f>
         <v>2.2518093472720084E-6</v>
       </c>
       <c r="J128" s="4"/>
@@ -4107,8 +4777,8 @@
       <c r="D129" s="1">
         <v>442359</v>
       </c>
-      <c r="E129" s="1">
-        <f t="shared" si="1"/>
+      <c r="E129" s="5">
+        <f>B129/D129</f>
         <v>2.2606073347665584E-9</v>
       </c>
       <c r="J129" s="4"/>
@@ -4129,8 +4799,8 @@
       <c r="D130" s="1">
         <v>442630</v>
       </c>
-      <c r="E130" s="1">
-        <f t="shared" si="1"/>
+      <c r="E130" s="5">
+        <f>B130/D130</f>
         <v>2.2592232790366672E-9</v>
       </c>
       <c r="J130" s="4"/>
@@ -4151,8 +4821,8 @@
       <c r="D131" s="1">
         <v>440245</v>
       </c>
-      <c r="E131" s="1">
-        <f t="shared" ref="E131:E177" si="2">B131/D131</f>
+      <c r="E131" s="5">
+        <f>B131/D131</f>
         <v>2.2714624811184684E-9</v>
       </c>
       <c r="J131" s="4"/>
@@ -4173,8 +4843,8 @@
       <c r="D132" s="1">
         <v>438130</v>
       </c>
-      <c r="E132" s="1">
-        <f t="shared" si="2"/>
+      <c r="E132" s="5">
+        <f>B132/D132</f>
         <v>2.2824275899847077E-9</v>
       </c>
       <c r="J132" s="4"/>
@@ -4195,8 +4865,8 @@
       <c r="D133" s="1">
         <v>437690</v>
       </c>
-      <c r="E133" s="1">
-        <f t="shared" si="2"/>
+      <c r="E133" s="5">
+        <f>B133/D133</f>
         <v>2.2847220635609679E-9</v>
       </c>
       <c r="J133" s="4"/>
@@ -4217,8 +4887,8 @@
       <c r="D134" s="1">
         <v>437806</v>
       </c>
-      <c r="E134" s="1">
-        <f t="shared" si="2"/>
+      <c r="E134" s="5">
+        <f>B134/D134</f>
         <v>4.5283984230458241E-6</v>
       </c>
       <c r="J134" s="4"/>
@@ -4239,8 +4909,8 @@
       <c r="D135" s="1">
         <v>440340</v>
       </c>
-      <c r="E135" s="1">
-        <f t="shared" si="2"/>
+      <c r="E135" s="5">
+        <f>B135/D135</f>
         <v>2.2511650088567923E-6</v>
       </c>
       <c r="J135" s="4"/>
@@ -4261,8 +4931,8 @@
       <c r="D136" s="1">
         <v>442698</v>
       </c>
-      <c r="E136" s="1">
-        <f t="shared" si="2"/>
+      <c r="E136" s="5">
+        <f>B136/D136</f>
         <v>2.2588762542410402E-9</v>
       </c>
       <c r="J136" s="4"/>
@@ -4283,8 +4953,8 @@
       <c r="D137" s="1">
         <v>440092</v>
       </c>
-      <c r="E137" s="1">
-        <f t="shared" si="2"/>
+      <c r="E137" s="5">
+        <f>B137/D137</f>
         <v>2.2524335820692037E-6</v>
       </c>
       <c r="J137" s="4"/>
@@ -4305,8 +4975,8 @@
       <c r="D138" s="1">
         <v>438743</v>
       </c>
-      <c r="E138" s="1">
-        <f t="shared" si="2"/>
+      <c r="E138" s="5">
+        <f>B138/D138</f>
         <v>4.5187273643112255E-6</v>
       </c>
       <c r="J138" s="4"/>
@@ -4327,8 +4997,8 @@
       <c r="D139" s="1">
         <v>437824</v>
       </c>
-      <c r="E139" s="1">
-        <f t="shared" si="2"/>
+      <c r="E139" s="5">
+        <f>B139/D139</f>
         <v>4.5282122496711008E-6</v>
       </c>
       <c r="J139" s="4"/>
@@ -4349,8 +5019,8 @@
       <c r="D140" s="1">
         <v>438667</v>
       </c>
-      <c r="E140" s="1">
-        <f t="shared" si="2"/>
+      <c r="E140" s="5">
+        <f>B140/D140</f>
         <v>2.2796335261143419E-9</v>
       </c>
       <c r="J140" s="4"/>
@@ -4371,8 +5041,8 @@
       <c r="D141" s="1">
         <v>437991</v>
       </c>
-      <c r="E141" s="1">
-        <f t="shared" si="2"/>
+      <c r="E141" s="5">
+        <f>B141/D141</f>
         <v>2.2831519369119456E-9</v>
       </c>
       <c r="J141" s="4"/>
@@ -4393,8 +5063,8 @@
       <c r="D142" s="1">
         <v>441394</v>
       </c>
-      <c r="E142" s="1">
-        <f t="shared" si="2"/>
+      <c r="E142" s="5">
+        <f>B142/D142</f>
         <v>2.2655495996773857E-9</v>
       </c>
       <c r="J142" s="4"/>
@@ -4415,8 +5085,8 @@
       <c r="D143" s="1">
         <v>441704</v>
       </c>
-      <c r="E143" s="1">
-        <f t="shared" si="2"/>
+      <c r="E143" s="5">
+        <f>B143/D143</f>
         <v>4.488435694492239E-6</v>
       </c>
       <c r="J143" s="4"/>
@@ -4437,8 +5107,8 @@
       <c r="D144" s="1">
         <v>440762</v>
       </c>
-      <c r="E144" s="1">
-        <f t="shared" si="2"/>
+      <c r="E144" s="5">
+        <f>B144/D144</f>
         <v>2.2687981268802664E-9</v>
       </c>
       <c r="J144" s="4"/>
@@ -4459,8 +5129,8 @@
       <c r="D145" s="1">
         <v>438299</v>
       </c>
-      <c r="E145" s="1">
-        <f t="shared" si="2"/>
+      <c r="E145" s="5">
+        <f>B145/D145</f>
         <v>2.2616478705176145E-6</v>
       </c>
       <c r="J145" s="4"/>
@@ -4481,8 +5151,8 @@
       <c r="D146" s="1">
         <v>436671</v>
       </c>
-      <c r="E146" s="1">
-        <f t="shared" si="2"/>
+      <c r="E146" s="5">
+        <f>B146/D146</f>
         <v>2.2900536101550138E-9</v>
       </c>
       <c r="J146" s="4"/>
@@ -4503,8 +5173,8 @@
       <c r="D147" s="1">
         <v>437189</v>
       </c>
-      <c r="E147" s="1">
-        <f t="shared" si="2"/>
+      <c r="E147" s="5">
+        <f>B147/D147</f>
         <v>2.2873402578747406E-9</v>
       </c>
       <c r="J147" s="4"/>
@@ -4525,8 +5195,8 @@
       <c r="D148" s="1">
         <v>437903</v>
       </c>
-      <c r="E148" s="1">
-        <f t="shared" si="2"/>
+      <c r="E148" s="5">
+        <f>B148/D148</f>
         <v>2.2836107539797628E-9</v>
       </c>
       <c r="J148" s="4"/>
@@ -4547,8 +5217,8 @@
       <c r="D149" s="1">
         <v>439750</v>
       </c>
-      <c r="E149" s="1">
-        <f t="shared" si="2"/>
+      <c r="E149" s="5">
+        <f>B149/D149</f>
         <v>2.2541853325753269E-6</v>
       </c>
       <c r="J149" s="4"/>
@@ -4569,8 +5239,8 @@
       <c r="D150" s="1">
         <v>440149</v>
       </c>
-      <c r="E150" s="1">
-        <f t="shared" si="2"/>
+      <c r="E150" s="5">
+        <f>B150/D150</f>
         <v>2.2719579051639333E-9</v>
       </c>
       <c r="J150" s="4"/>
@@ -4591,8 +5261,8 @@
       <c r="D151" s="1">
         <v>441270</v>
       </c>
-      <c r="E151" s="1">
-        <f t="shared" si="2"/>
+      <c r="E151" s="5">
+        <f>B151/D151</f>
         <v>2.2661862351848073E-9</v>
       </c>
       <c r="J151" s="4"/>
@@ -4613,8 +5283,8 @@
       <c r="D152" s="1">
         <v>440314</v>
       </c>
-      <c r="E152" s="1">
-        <f t="shared" si="2"/>
+      <c r="E152" s="5">
+        <f>B152/D152</f>
         <v>4.5026049591882156E-6</v>
       </c>
       <c r="J152" s="4"/>
@@ -4635,8 +5305,8 @@
       <c r="D153" s="1">
         <v>437840</v>
       </c>
-      <c r="E153" s="1">
-        <f t="shared" si="2"/>
+      <c r="E153" s="5">
+        <f>B153/D153</f>
         <v>2.2839393385711677E-9</v>
       </c>
       <c r="J153" s="4"/>
@@ -4657,8 +5327,8 @@
       <c r="D154" s="1">
         <v>436238</v>
       </c>
-      <c r="E154" s="1">
-        <f t="shared" si="2"/>
+      <c r="E154" s="5">
+        <f>B154/D154</f>
         <v>2.2923266657191715E-9</v>
       </c>
       <c r="J154" s="4"/>
@@ -4679,8 +5349,8 @@
       <c r="D155" s="1">
         <v>437491</v>
       </c>
-      <c r="E155" s="1">
-        <f t="shared" si="2"/>
+      <c r="E155" s="5">
+        <f>B155/D155</f>
         <v>2.2857613070897458E-9</v>
       </c>
       <c r="J155" s="4"/>
@@ -4701,8 +5371,8 @@
       <c r="D156" s="1">
         <v>437556</v>
       </c>
-      <c r="E156" s="1">
-        <f t="shared" si="2"/>
+      <c r="E156" s="5">
+        <f>B156/D156</f>
         <v>2.2854217517300643E-9</v>
       </c>
       <c r="J156" s="4"/>
@@ -4723,8 +5393,8 @@
       <c r="D157" s="1">
         <v>438154</v>
       </c>
-      <c r="E157" s="1">
-        <f t="shared" si="2"/>
+      <c r="E157" s="5">
+        <f>B157/D157</f>
         <v>4.524801782021846E-6</v>
       </c>
       <c r="J157" s="4"/>
@@ -4745,8 +5415,8 @@
       <c r="D158" s="1">
         <v>438630</v>
       </c>
-      <c r="E158" s="1">
-        <f t="shared" si="2"/>
+      <c r="E158" s="5">
+        <f>B158/D158</f>
         <v>2.2798258213072522E-9</v>
       </c>
       <c r="J158" s="4"/>
@@ -4767,8 +5437,8 @@
       <c r="D159" s="1">
         <v>440554</v>
       </c>
-      <c r="E159" s="1">
-        <f t="shared" si="2"/>
+      <c r="E159" s="5">
+        <f>B159/D159</f>
         <v>2.2698693009256527E-9</v>
       </c>
       <c r="J159" s="4"/>
@@ -4789,8 +5459,8 @@
       <c r="D160" s="1">
         <v>440909</v>
       </c>
-      <c r="E160" s="1">
-        <f t="shared" si="2"/>
+      <c r="E160" s="5">
+        <f>B160/D160</f>
         <v>2.2680417047508669E-9</v>
       </c>
       <c r="J160" s="4"/>
@@ -4811,8 +5481,8 @@
       <c r="D161" s="1">
         <v>439552</v>
       </c>
-      <c r="E161" s="1">
-        <f t="shared" si="2"/>
+      <c r="E161" s="5">
+        <f>B161/D161</f>
         <v>2.2750436808386721E-9</v>
       </c>
       <c r="J161" s="4"/>
@@ -4833,8 +5503,8 @@
       <c r="D162" s="1">
         <v>439052</v>
       </c>
-      <c r="E162" s="1">
-        <f t="shared" si="2"/>
+      <c r="E162" s="5">
+        <f>B162/D162</f>
         <v>2.2776345398722702E-9</v>
       </c>
       <c r="J162" s="4"/>
@@ -4855,8 +5525,8 @@
       <c r="D163" s="1">
         <v>438470</v>
       </c>
-      <c r="E163" s="1">
-        <f t="shared" si="2"/>
+      <c r="E163" s="5">
+        <f>B163/D163</f>
         <v>2.2806577416927041E-9</v>
       </c>
       <c r="J163" s="4"/>
@@ -4877,8 +5547,8 @@
       <c r="D164" s="1">
         <v>437442</v>
       </c>
-      <c r="E164" s="1">
-        <f t="shared" si="2"/>
+      <c r="E164" s="5">
+        <f>B164/D164</f>
         <v>2.2660787030051984E-6</v>
       </c>
       <c r="J164" s="4"/>
@@ -4899,8 +5569,8 @@
       <c r="D165" s="1">
         <v>437133</v>
       </c>
-      <c r="E165" s="1">
-        <f t="shared" si="2"/>
+      <c r="E165" s="5">
+        <f>B165/D165</f>
         <v>2.2876332832341645E-9</v>
       </c>
       <c r="J165" s="4"/>
@@ -4921,8 +5591,8 @@
       <c r="D166" s="1">
         <v>437315</v>
       </c>
-      <c r="E166" s="1">
-        <f t="shared" si="2"/>
+      <c r="E166" s="5">
+        <f>B166/D166</f>
         <v>6.8002240947600698E-6</v>
       </c>
       <c r="J166" s="4"/>
@@ -4943,8 +5613,8 @@
       <c r="D167" s="1">
         <v>437148</v>
       </c>
-      <c r="E167" s="1">
-        <f t="shared" si="2"/>
+      <c r="E167" s="5">
+        <f>B167/D167</f>
         <v>2.2875547869371471E-9</v>
       </c>
       <c r="J167" s="4"/>
@@ -4965,8 +5635,8 @@
       <c r="D168" s="1">
         <v>437344</v>
       </c>
-      <c r="E168" s="1">
-        <f t="shared" si="2"/>
+      <c r="E168" s="5">
+        <f>B168/D168</f>
         <v>2.2665864856954708E-6</v>
       </c>
       <c r="J168" s="4"/>
@@ -4987,8 +5657,8 @@
       <c r="D169" s="1">
         <v>436972</v>
       </c>
-      <c r="E169" s="1">
-        <f t="shared" si="2"/>
+      <c r="E169" s="5">
+        <f>B169/D169</f>
         <v>2.2884761495015699E-9</v>
       </c>
       <c r="J169" s="4"/>
@@ -5009,8 +5679,8 @@
       <c r="D170" s="1">
         <v>437143</v>
       </c>
-      <c r="E170" s="1">
-        <f t="shared" si="2"/>
+      <c r="E170" s="5">
+        <f>B170/D170</f>
         <v>2.2875809517709308E-9</v>
       </c>
       <c r="J170" s="4"/>
@@ -5031,8 +5701,8 @@
       <c r="D171" s="1">
         <v>437645</v>
       </c>
-      <c r="E171" s="1">
-        <f t="shared" si="2"/>
+      <c r="E171" s="5">
+        <f>B171/D171</f>
         <v>2.2849569856847447E-9</v>
       </c>
       <c r="J171" s="4"/>
@@ -5053,8 +5723,8 @@
       <c r="D172" s="1">
         <v>437353</v>
       </c>
-      <c r="E172" s="1">
-        <f t="shared" si="2"/>
+      <c r="E172" s="5">
+        <f>B172/D172</f>
         <v>2.2864825438490189E-9</v>
       </c>
       <c r="J172" s="4"/>
@@ -5075,8 +5745,8 @@
       <c r="D173" s="1">
         <v>437105</v>
       </c>
-      <c r="E173" s="1">
-        <f t="shared" si="2"/>
+      <c r="E173" s="5">
+        <f>B173/D173</f>
         <v>2.2877798240697317E-9</v>
       </c>
       <c r="J173" s="4"/>
@@ -5097,8 +5767,8 @@
       <c r="D174" s="1">
         <v>436397</v>
       </c>
-      <c r="E174" s="1">
-        <f t="shared" si="2"/>
+      <c r="E174" s="5">
+        <f>B174/D174</f>
         <v>2.2914914630485545E-9</v>
       </c>
       <c r="J174" s="4"/>
@@ -5119,8 +5789,8 @@
       <c r="D175" s="1">
         <v>436626</v>
       </c>
-      <c r="E175" s="1">
-        <f t="shared" si="2"/>
+      <c r="E175" s="5">
+        <f>B175/D175</f>
         <v>2.2902896300266131E-9</v>
       </c>
       <c r="J175" s="4"/>
@@ -5141,8 +5811,8 @@
       <c r="D176" s="1">
         <v>437740</v>
       </c>
-      <c r="E176" s="1">
-        <f t="shared" si="2"/>
+      <c r="E176" s="5">
+        <f>B176/D176</f>
         <v>2.2844610956275416E-9</v>
       </c>
       <c r="J176" s="4"/>
@@ -5163,8 +5833,8 @@
       <c r="D177" s="1">
         <v>437231</v>
       </c>
-      <c r="E177" s="1">
-        <f t="shared" si="2"/>
+      <c r="E177" s="5">
+        <f>B177/D177</f>
         <v>2.2671722727802921E-6</v>
       </c>
       <c r="J177" s="4"/>
@@ -5888,9 +6558,10 @@
       <c r="B298" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K114">
-    <sortCondition ref="K1:K114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:H298">
+    <sortCondition ref="G1:G298"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>